--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/70.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/70.xlsx
@@ -479,13 +479,13 @@
         <v>-5.573819670102686</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.559839947283234</v>
+        <v>-6.207669933763183</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.861486600089453</v>
+        <v>-7.528293357661116</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.104790380387126</v>
+        <v>-8.528461937460241</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.089496084738096</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.533930564454235</v>
+        <v>-6.918360416972275</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.387345825129175</v>
+        <v>-7.240589970563772</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.235466109491679</v>
+        <v>-9.615850399765129</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.724585742831477</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.55050176229186</v>
+        <v>-7.912544852366296</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.966289886729859</v>
+        <v>-7.062713233724805</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.40495566411267</v>
+        <v>-10.30569904670056</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.541904045753768</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.299106493753877</v>
+        <v>-8.459742056938886</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.335265770417147</v>
+        <v>-6.507170494430393</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.28777341208524</v>
+        <v>-10.96659988397699</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.504643864494144</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.218621127269508</v>
+        <v>-9.366447492463198</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.045000543721539</v>
+        <v>-6.259410293435744</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.42747913687298</v>
+        <v>-11.73270726002256</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.591903835269688</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.759751074320254</v>
+        <v>-9.925104529131834</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.73251966982267</v>
+        <v>-6.042372611592789</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.44143960504367</v>
+        <v>-12.30212988981215</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.766152463609718</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.528747853424173</v>
+        <v>-10.71513870478409</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.414343102923845</v>
+        <v>-5.772025198872993</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.4803242302219</v>
+        <v>-13.08735817171423</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.988898767822432</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.784154461158677</v>
+        <v>-10.88877667266944</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.207787451803555</v>
+        <v>-5.600245053597069</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.01368554536112</v>
+        <v>-13.4380808573261</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.217758660556269</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.977812912164046</v>
+        <v>-11.26299592528371</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.176184911415818</v>
+        <v>-5.338438735873774</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.70873609560295</v>
+        <v>-13.9244099264056</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.425352931456529</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.15097175737644</v>
+        <v>-11.5437178105751</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.515379318835509</v>
+        <v>-5.640041569493757</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.6762633119929</v>
+        <v>-13.66522411636297</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.592812303991318</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.62648634326632</v>
+        <v>-12.17396946380284</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.057704719003</v>
+        <v>-5.172691625071623</v>
       </c>
       <c r="G12" t="n">
-        <v>-15.42388299950902</v>
+        <v>-13.5181725678199</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.711344278932463</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.19386047917867</v>
+        <v>-12.87925270541712</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.237717951842809</v>
+        <v>-5.191832086955595</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.7612074527399</v>
+        <v>-12.90692937329073</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.78382027727048</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.62334995442341</v>
+        <v>-13.37090590297469</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.473343637793775</v>
+        <v>-5.253927363172282</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.79167338996886</v>
+        <v>-12.36029440450784</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.823230031312602</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.19643445035631</v>
+        <v>-14.0489964883952</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.285439547870766</v>
+        <v>-5.14637410110702</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.1330582543405</v>
+        <v>-11.08421961118123</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.841321790828869</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.70215332067</v>
+        <v>-14.68162419896026</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.193257323395084</v>
+        <v>-5.017553659170678</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.77423701979136</v>
+        <v>-10.05609080111022</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.851016781799157</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.33733798182645</v>
+        <v>-15.4576953710006</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.833509531106881</v>
+        <v>-4.664777590674697</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.502356994356566</v>
+        <v>-9.093161786616387</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.868574002073087</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.9295824956708</v>
+        <v>-16.15917007626556</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.653129622752055</v>
+        <v>-4.391394104690546</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.815302505783358</v>
+        <v>-7.882673020409446</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.905961658303355</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.82185069391711</v>
+        <v>-17.13599364827516</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.273141342034824</v>
+        <v>-4.097941245517711</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.104262549521065</v>
+        <v>-6.588416010544786</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.967884607430975</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.82647804797886</v>
+        <v>-18.16226463573675</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.826643011900082</v>
+        <v>-3.826215132861444</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.618473806638145</v>
+        <v>-5.553657707162237</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.05942926441009</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.32331359281536</v>
+        <v>-18.80231385872579</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.448556554854082</v>
+        <v>-3.486253151363647</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.700127645763708</v>
+        <v>-5.104142859790609</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.187529953231922</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.14965353346132</v>
+        <v>-19.65851585331487</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.404516380996912</v>
+        <v>-3.51039995627934</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.851244494454399</v>
+        <v>-4.507346680553169</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.352762826111169</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.46048192303918</v>
+        <v>-19.91612740314635</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.212588638422432</v>
+        <v>-3.305369675301527</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.312529716795908</v>
+        <v>-4.126874388156113</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.552437925263161</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.01018718813449</v>
+        <v>-20.46565666399446</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.166363078495751</v>
+        <v>-3.29951753408183</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.332828873307338</v>
+        <v>-4.191546170991664</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.786697782990161</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.76791480641017</v>
+        <v>-21.09927195394663</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.950083192717168</v>
+        <v>-3.093064552105746</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.421051002220818</v>
+        <v>-4.216509440054132</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.04898409921332</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.02369297866656</v>
+        <v>-21.44709545848643</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.915087681563791</v>
+        <v>-3.066458576735995</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.360930884778365</v>
+        <v>-4.236461477078012</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.327540608542557</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.19862653337164</v>
+        <v>-21.50840849360441</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.165194605854559</v>
+        <v>-3.269728815241717</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.784421548597405</v>
+        <v>-4.436685864305646</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.609532326524663</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.22729566963923</v>
+        <v>-21.52486000171158</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.117497454860936</v>
+        <v>-3.177810597136849</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.487954525753333</v>
+        <v>-4.798677710745763</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.881658151617515</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.17319880865682</v>
+        <v>-21.37347190407756</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.457337211187061</v>
+        <v>-3.483080185907019</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.224688748542481</v>
+        <v>-5.357720978956887</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.125133505784781</v>
       </c>
       <c r="E30" t="n">
-        <v>-18.93669799047668</v>
+        <v>-21.1656842232268</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.519251594149672</v>
+        <v>-3.506674533046751</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.004720016145026</v>
+        <v>-5.905299526065095</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.324935867848124</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.07725204889361</v>
+        <v>-21.20778835036468</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.580804190604131</v>
+        <v>-3.595967354464085</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.667630235243759</v>
+        <v>-6.322468704005213</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.473615463292253</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.17547219684993</v>
+        <v>-21.31671053435268</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.759301831315196</v>
+        <v>-3.697585362192912</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.447069933015408</v>
+        <v>-6.669949978064326</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.561512944133389</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.06105476914352</v>
+        <v>-21.25385257306475</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.805434500111406</v>
+        <v>-3.696734674998069</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.320671903043839</v>
+        <v>-7.159373788490581</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.576583370905754</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.42816305220765</v>
+        <v>-20.46613089766054</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.813085795858127</v>
+        <v>-3.80072385105735</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.826752559865673</v>
+        <v>-7.439068982339919</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.514348464826506</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.00486794866329</v>
+        <v>-20.11159478669247</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.787829186383645</v>
+        <v>-3.601457709175631</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.216034842636908</v>
+        <v>-7.637538216102331</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.379539164978279</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.64390279366522</v>
+        <v>-19.84703595810311</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.027375855841877</v>
+        <v>-3.937968051825386</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.433204527665271</v>
+        <v>-7.675564911513195</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.177162173648425</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.29917891947905</v>
+        <v>-19.45742122286492</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.649323621843944</v>
+        <v>-3.61675052265534</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.709687644003045</v>
+        <v>-7.883401482432617</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.917700754006809</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.81203827525965</v>
+        <v>-18.99343980417409</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.747974002404554</v>
+        <v>-3.720373023199603</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.683345675004107</v>
+        <v>-7.726386137894776</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.619704473304235</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.41028413597091</v>
+        <v>-18.58706555339612</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.630554724481858</v>
+        <v>-3.598793200433162</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.663999874831724</v>
+        <v>-7.712442690310334</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.297987256104714</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.88867599333975</v>
+        <v>-18.13401595405971</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.551519039471311</v>
+        <v>-3.537436164253379</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.449323583305489</v>
+        <v>-7.498797979233018</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.959838813040082</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.23364685331049</v>
+        <v>-17.52797466283694</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.260144008216914</v>
+        <v>-3.293293828340247</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.559629356236824</v>
+        <v>-7.664540201028302</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.615522693590627</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.7514978851022</v>
+        <v>-17.05193695321229</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.061405879076821</v>
+        <v>-3.136024255445327</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.047285881618473</v>
+        <v>-7.214585343038651</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.274115025417177</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.27452637516598</v>
+        <v>-16.58909956212832</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.282540548674251</v>
+        <v>-3.356322904868515</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.792578401865938</v>
+        <v>-7.198226726061955</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.937206862351477</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.93596753863899</v>
+        <v>-16.12747953375422</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.15872644976963</v>
+        <v>-3.295757887801173</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.231173743338094</v>
+        <v>-6.913080289556007</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.605782463612418</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.34793245970706</v>
+        <v>-15.69381973565199</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.194445533939311</v>
+        <v>-3.268985686197946</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.645363162530611</v>
+        <v>-6.510211456701614</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.27973656000481</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.70649475876782</v>
+        <v>-15.06229694063885</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.306858468830286</v>
+        <v>-3.383593785172167</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.20956197942068</v>
+        <v>-6.268772741585886</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.955147578919464</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.33296974512865</v>
+        <v>-14.61938714154443</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.433434856614714</v>
+        <v>-3.53219025988518</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.197143901978715</v>
+        <v>-6.367105336700146</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.625856136893081</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.50768582996594</v>
+        <v>-13.75159331167389</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.531723450667172</v>
+        <v>-3.664692123992308</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.354024889765499</v>
+        <v>-5.7577199647804</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.293011035644687</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.16209171255745</v>
+        <v>-13.4669406648615</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.892439266315024</v>
+        <v>-3.879417305587213</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.895934724349302</v>
+        <v>-5.52037334841228</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.95958069945867</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.67445238963762</v>
+        <v>-12.95902174145771</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.065891451939433</v>
+        <v>-4.019942029962949</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.010190814829104</v>
+        <v>-5.734795411581436</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.627795867544961</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.3031812081641</v>
+        <v>-12.56439088517407</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.077277948932478</v>
+        <v>-3.949364326832165</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.742053233213154</v>
+        <v>-5.594060459910422</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.304148121938261</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.849285810639717</v>
+        <v>-12.05453591505097</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.127312045208485</v>
+        <v>-3.897071509383643</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.307875200383038</v>
+        <v>-5.2542793716667</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.99898898831316</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.68981129564782</v>
+        <v>-11.83932672177625</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.193108299623427</v>
+        <v>-3.955896040006364</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.398272937352296</v>
+        <v>-5.237651859312322</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.721821949163047</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.183608413654312</v>
+        <v>-11.33641903041104</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.276319196498319</v>
+        <v>-3.904522355848821</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.395178196005538</v>
+        <v>-5.318134690355476</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.479482356863673</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.628691467238864</v>
+        <v>-10.8596870818113</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.595067777200573</v>
+        <v>-4.199901483727221</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.746477784427712</v>
+        <v>-5.503472051673355</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.279215576967796</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.522795578501487</v>
+        <v>-10.73886505510923</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.692955472689944</v>
+        <v>-4.276683336572121</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.017382543930336</v>
+        <v>-5.718920806284563</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.121979654647288</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.201905612791524</v>
+        <v>-10.40485299496846</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.639391513456024</v>
+        <v>-4.126830387094311</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.128377666829906</v>
+        <v>-5.773389231788863</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.002692773093531</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.84572679551617</v>
+        <v>-9.979054719908241</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.599404326291526</v>
+        <v>-4.171564799926583</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.734208730757406</v>
+        <v>-6.317393914877355</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.915733442290505</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.602068471282863</v>
+        <v>-9.656639384055801</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.7682364004267</v>
+        <v>-4.329753506112483</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.267330484560147</v>
+        <v>-6.68479300291228</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.856955404747818</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.566823620779273</v>
+        <v>-9.444769382471176</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.836584716426171</v>
+        <v>-4.219291284961407</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.797181492768921</v>
+        <v>-7.072041458826879</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.819764516874008</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.430195434876468</v>
+        <v>-9.35837574212592</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.919228488504501</v>
+        <v>-4.355352346067649</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.082763050886024</v>
+        <v>-7.278245101452751</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.797049977417321</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.187055345371054</v>
+        <v>-8.960058574664627</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.042900806209982</v>
+        <v>-4.427406529272242</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.589997513328449</v>
+        <v>-7.698665468959368</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.787608436543549</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.053629458966078</v>
+        <v>-8.770365108228326</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.033274351689027</v>
+        <v>-4.370610936499291</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.59768303212324</v>
+        <v>-7.632165197555591</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.790066816921998</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.240594859570639</v>
+        <v>-8.946716474924816</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.064334212314537</v>
+        <v>-4.45783570801192</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.854375448663743</v>
+        <v>-7.799667461822964</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.802347897688689</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.071801897490401</v>
+        <v>-8.701112325958476</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.990930663214676</v>
+        <v>-4.378555572658028</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.151407060863161</v>
+        <v>-8.032007735159363</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.822411435648643</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.359837737054694</v>
+        <v>-8.94764538622953</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.070714366275861</v>
+        <v>-4.521515022453488</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.172473791452697</v>
+        <v>-8.039038127033987</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.847654450695208</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.298906044472334</v>
+        <v>-8.792649201527725</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.372796322568802</v>
+        <v>-4.744302176371935</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.080247565915213</v>
+        <v>-7.999608286652318</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.871803026621549</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.529471608316043</v>
+        <v>-8.984440051909932</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.19427912583027</v>
+        <v>-4.61003538078585</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.107562447280667</v>
+        <v>-7.995266848554498</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.886959729504207</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.756130855673087</v>
+        <v>-9.236248350590385</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.260652283055506</v>
+        <v>-4.624467729056983</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.901182800407586</v>
+        <v>-7.956761030470675</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.887508435981696</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.126629574061635</v>
+        <v>-9.385675956470774</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.030135609280467</v>
+        <v>-4.447427012392259</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.954688091559103</v>
+        <v>-7.984427920330547</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.868980161801135</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.456207304974106</v>
+        <v>-9.705197000258</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.108902398913334</v>
+        <v>-4.535297132811321</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.060701316461287</v>
+        <v>-8.215521496915883</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.826994027638367</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.989597954154526</v>
+        <v>-10.09933406684808</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.126336597400752</v>
+        <v>-4.531420150365857</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.014891322118293</v>
+        <v>-8.190484892750412</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.759403071901832</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.360003781412603</v>
+        <v>-10.42554816103612</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.361312045438419</v>
+        <v>-4.808529059582597</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.761919439803513</v>
+        <v>-8.031675282692413</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.664868531215028</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.88747384327719</v>
+        <v>-10.90120452812514</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.30744496777875</v>
+        <v>-4.788454797387044</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.436849373222339</v>
+        <v>-7.904834888537172</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.544841877134898</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.27896595715227</v>
+        <v>-11.2555059667636</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.391653222054493</v>
+        <v>-4.819944890616843</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.103238211644664</v>
+        <v>-7.801466616349989</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.403391359732631</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.60574717613687</v>
+        <v>-11.4741179088177</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.437800557871303</v>
+        <v>-4.846844206398609</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.880563504884155</v>
+        <v>-7.661782801155362</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.246542198287432</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.23300675716206</v>
+        <v>-12.0518274052467</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.606285512518926</v>
+        <v>-4.987383597794946</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.599421165002211</v>
+        <v>-7.477467242272668</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.083115135236357</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.7472569444585</v>
+        <v>-12.54982653371753</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.602667647437409</v>
+        <v>-5.026681434991208</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.577093070641011</v>
+        <v>-7.396720404858701</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9213861988869683</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.42868183256224</v>
+        <v>-13.30293404050397</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.979619854890285</v>
+        <v>-5.236366050506324</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.340044683691772</v>
+        <v>-7.304107947778731</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7695204768588167</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.05133108011193</v>
+        <v>-13.87881015935788</v>
       </c>
       <c r="F80" t="n">
-        <v>-5.010254371918374</v>
+        <v>-5.328738946249815</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.001353843979373</v>
+        <v>-6.967343376771896</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.634102731011706</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.56091226585047</v>
+        <v>-14.4311750441888</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.008376993281479</v>
+        <v>-5.330860775230056</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.675833988766442</v>
+        <v>-6.739486322732458</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5196723555870635</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.25934600884421</v>
+        <v>-15.10790159669344</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.211397892436989</v>
+        <v>-5.470906376932835</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.682962160778404</v>
+        <v>-6.914395432403206</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4291112799459306</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.85411813923875</v>
+        <v>-15.7930763530641</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.478885236139639</v>
+        <v>-5.744236083841448</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.582380622505362</v>
+        <v>-6.795431228310566</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3654862067451102</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.78599218211394</v>
+        <v>-16.5926049800519</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.638213080925531</v>
+        <v>-5.83589518458237</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.315127951132324</v>
+        <v>-6.626276479722175</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.331814456701379</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.89501938881179</v>
+        <v>-17.77778335770882</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.688833858025569</v>
+        <v>-5.729456616082765</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.172544954865616</v>
+        <v>-6.505777127473323</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.330659621344296</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.04201951184497</v>
+        <v>-19.00622944613794</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.92994989868808</v>
+        <v>-5.988647315132261</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.9799131953023</v>
+        <v>-6.275016003354937</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3646730676459889</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.16132829998395</v>
+        <v>-20.04123219986383</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.090328879950357</v>
+        <v>-5.970831774109223</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.093250152491122</v>
+        <v>-6.350507158386971</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4372713371177928</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.14149595269053</v>
+        <v>-21.12335031276619</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.188901036401097</v>
+        <v>-5.797990714343179</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.206777780947754</v>
+        <v>-6.306706545866279</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5495038324375038</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.1465486503497</v>
+        <v>-22.33711960258083</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.456412825138083</v>
+        <v>-6.191521544081763</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.895167150271196</v>
+        <v>-5.98535212450396</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.7006484572757332</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.79072654870006</v>
+        <v>-23.96273394185751</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.655263401436114</v>
+        <v>-6.341330492497772</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.011794409081452</v>
+        <v>-6.22748507859479</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.8909524174164269</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.14269339562179</v>
+        <v>-25.4175850492866</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.573646320799836</v>
+        <v>-6.29385334681316</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.83202562658499</v>
+        <v>-5.971755796407069</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.120547845466847</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.83311152091943</v>
+        <v>-27.23679428247938</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.727117135359163</v>
+        <v>-6.383102167168692</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.069743807474995</v>
+        <v>-6.280785031457897</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.387475703598663</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.46119725316735</v>
+        <v>-28.99234620176151</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.638577220999333</v>
+        <v>-6.271173243957541</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.129888369951783</v>
+        <v>-6.425348075505704</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.688189814009822</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.10697141225976</v>
+        <v>-30.79585927840806</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.003463359504663</v>
+        <v>-6.618815855243263</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.187065305260353</v>
+        <v>-6.541589102773474</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.02049411129656</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.23770816301237</v>
+        <v>-33.04063944784176</v>
       </c>
       <c r="F95" t="n">
-        <v>-6.918893318720769</v>
+        <v>-6.5860643982418</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.096447562982084</v>
+        <v>-6.502545493934291</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.379088412073827</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.06561982842826</v>
+        <v>-34.91560535984828</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.20346285241642</v>
+        <v>-6.712347445614212</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.302685428656025</v>
+        <v>-6.669549079501239</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.751430631777719</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.08421498417101</v>
+        <v>-36.96541437993284</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.368403277085529</v>
+        <v>-6.888821037482375</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.151248440953334</v>
+        <v>-6.653498469957158</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.128474138719104</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.92966596172196</v>
+        <v>-38.97809872637348</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.271116929440789</v>
+        <v>-6.741789044966775</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.429129813255046</v>
+        <v>-6.943123236753199</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.489383687270204</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.00553094390374</v>
+        <v>-41.17752846810968</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.329936571056643</v>
+        <v>-6.713564808324074</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.740016870915301</v>
+        <v>-7.332278405345895</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.82486332168606</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.52570887015076</v>
+        <v>-43.74971320490351</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.056645976202964</v>
+        <v>-6.439883092921042</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.286695840759997</v>
+        <v>-7.855089243666312</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.102649311866372</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.61192632437324</v>
+        <v>-45.83127143558181</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.9589049509196</v>
+        <v>-6.28497979934971</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.904108961955218</v>
+        <v>-8.322483189150248</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.333144797022186</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.9609938992851</v>
+        <v>-48.3091142291165</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.032024937621181</v>
+        <v>-6.450668242069457</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.393332323099929</v>
+        <v>-8.787339740070255</v>
       </c>
     </row>
   </sheetData>
